--- a/Code/Results/Cases/Case_3_151/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_151/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.37033859873312</v>
+        <v>17.61829200881043</v>
       </c>
       <c r="C2">
-        <v>7.191803322513452</v>
+        <v>5.637866171132563</v>
       </c>
       <c r="D2">
-        <v>2.339256743282256</v>
+        <v>4.23390688931526</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>46.43454123614398</v>
+        <v>55.80349110604007</v>
       </c>
       <c r="G2">
-        <v>2.174315058224833</v>
+        <v>3.789626048486827</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.69684493020978</v>
+        <v>40.47954401922465</v>
       </c>
       <c r="J2">
-        <v>6.391419430471504</v>
+        <v>10.55481807256826</v>
       </c>
       <c r="K2">
-        <v>11.65011874818673</v>
+        <v>15.83711071410278</v>
       </c>
       <c r="L2">
-        <v>7.160046142166513</v>
+        <v>12.12974397727694</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.69765940911853</v>
+        <v>17.56981555844717</v>
       </c>
       <c r="C3">
-        <v>6.675864582877885</v>
+        <v>5.505059495140196</v>
       </c>
       <c r="D3">
-        <v>2.333160685641046</v>
+        <v>4.255910923883797</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>45.28376985658213</v>
+        <v>55.60503640512128</v>
       </c>
       <c r="G3">
-        <v>2.183203093356327</v>
+        <v>3.792773168910352</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.08697609001161</v>
+        <v>40.37674773694604</v>
       </c>
       <c r="J3">
-        <v>6.407109382679013</v>
+        <v>10.56822686463771</v>
       </c>
       <c r="K3">
-        <v>11.12398303915806</v>
+        <v>15.80464444538398</v>
       </c>
       <c r="L3">
-        <v>7.069715160400566</v>
+        <v>12.14831809996609</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.27755821492323</v>
+        <v>17.54518279186487</v>
       </c>
       <c r="C4">
-        <v>6.342925233880006</v>
+        <v>5.423795793643277</v>
       </c>
       <c r="D4">
-        <v>2.328277621736624</v>
+        <v>4.270286594171957</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>44.58671765518053</v>
+        <v>55.49026954920508</v>
       </c>
       <c r="G4">
-        <v>2.18880457747202</v>
+        <v>3.794806639824577</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.72119820579521</v>
+        <v>40.31784229832042</v>
       </c>
       <c r="J4">
-        <v>6.418215852177833</v>
+        <v>10.57716374141505</v>
       </c>
       <c r="K4">
-        <v>10.79797227263228</v>
+        <v>15.78894453242371</v>
       </c>
       <c r="L4">
-        <v>7.017897687656016</v>
+        <v>12.16163812840418</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.10482164285346</v>
+        <v>17.53644463572526</v>
       </c>
       <c r="C5">
-        <v>6.20313345733681</v>
+        <v>5.39080555970054</v>
       </c>
       <c r="D5">
-        <v>2.326008017209379</v>
+        <v>4.276363031391301</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>44.30522389977638</v>
+        <v>55.44530333359429</v>
       </c>
       <c r="G5">
-        <v>2.19112508668443</v>
+        <v>3.795660814763967</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.57434752958083</v>
+        <v>40.29490478979467</v>
       </c>
       <c r="J5">
-        <v>6.423106789850734</v>
+        <v>10.58098289780157</v>
       </c>
       <c r="K5">
-        <v>10.66456324578182</v>
+        <v>15.78361717024827</v>
       </c>
       <c r="L5">
-        <v>6.997695728281299</v>
+        <v>12.16754798659174</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.076053465178</v>
+        <v>17.53507242727811</v>
       </c>
       <c r="C6">
-        <v>6.179670979937611</v>
+        <v>5.385336759067936</v>
       </c>
       <c r="D6">
-        <v>2.325614448273328</v>
+        <v>4.277385220570326</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>44.25864171194073</v>
+        <v>55.43794614150465</v>
       </c>
       <c r="G6">
-        <v>2.19151273699317</v>
+        <v>3.795804193794668</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.55009704713137</v>
+        <v>40.29116068635732</v>
       </c>
       <c r="J6">
-        <v>6.423940817230192</v>
+        <v>10.58162778420092</v>
       </c>
       <c r="K6">
-        <v>10.64238314264938</v>
+        <v>15.78279736517324</v>
       </c>
       <c r="L6">
-        <v>6.994396310353909</v>
+        <v>12.16855842001361</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.27523452909029</v>
+        <v>17.54505967153036</v>
       </c>
       <c r="C7">
-        <v>6.34105669027152</v>
+        <v>5.423350294616931</v>
       </c>
       <c r="D7">
-        <v>2.328248136892257</v>
+        <v>4.270367658567098</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>44.58291073961523</v>
+        <v>55.48965579636407</v>
       </c>
       <c r="G7">
-        <v>2.188835717335364</v>
+        <v>3.7948180560815</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.71920876031433</v>
+        <v>40.31752862547354</v>
       </c>
       <c r="J7">
-        <v>6.418280342250131</v>
+        <v>10.57721452955696</v>
       </c>
       <c r="K7">
-        <v>10.79617505942928</v>
+        <v>15.78886834474101</v>
       </c>
       <c r="L7">
-        <v>7.0176215404579</v>
+        <v>12.16171587968053</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.13999616488657</v>
+        <v>17.60051830155825</v>
       </c>
       <c r="C8">
-        <v>7.017225558853431</v>
+        <v>5.592048823151222</v>
       </c>
       <c r="D8">
-        <v>2.337395841086746</v>
+        <v>4.241314746753531</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>46.03587402863013</v>
+        <v>55.73360629822542</v>
       </c>
       <c r="G8">
-        <v>2.17735072074675</v>
+        <v>3.790690241135796</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.48477313822232</v>
+        <v>40.44323060271659</v>
       </c>
       <c r="J8">
-        <v>6.396520321108118</v>
+        <v>10.55929554018078</v>
       </c>
       <c r="K8">
-        <v>11.46942590461173</v>
+        <v>15.82504119754474</v>
       </c>
       <c r="L8">
-        <v>7.128141929455022</v>
+        <v>12.13575091358631</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.77138297292234</v>
+        <v>17.74950801702469</v>
       </c>
       <c r="C9">
-        <v>8.217708121213731</v>
+        <v>5.922754535166892</v>
       </c>
       <c r="D9">
-        <v>2.345936644109682</v>
+        <v>4.191175105655116</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>48.95422528778118</v>
+        <v>56.26723243661394</v>
       </c>
       <c r="G9">
-        <v>2.155894793630852</v>
+        <v>3.783393894347879</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>34.05414642251968</v>
+        <v>40.72277997357725</v>
       </c>
       <c r="J9">
-        <v>6.365793498412296</v>
+        <v>10.52972669786905</v>
       </c>
       <c r="K9">
-        <v>12.75937176177366</v>
+        <v>15.92927787224048</v>
       </c>
       <c r="L9">
-        <v>7.373895027552574</v>
+        <v>12.1000221827436</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.92246461646302</v>
+        <v>17.8827510275332</v>
       </c>
       <c r="C10">
-        <v>9.027208477456375</v>
+        <v>6.16267834986824</v>
       </c>
       <c r="D10">
-        <v>2.345927225409755</v>
+        <v>4.158460375764764</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>51.13342963219593</v>
+        <v>56.69155247088958</v>
       </c>
       <c r="G10">
-        <v>2.140662813749018</v>
+        <v>3.778514179784309</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.24820463691196</v>
+        <v>40.94777493330321</v>
       </c>
       <c r="J10">
-        <v>6.350886378149885</v>
+        <v>10.51137896060045</v>
       </c>
       <c r="K10">
-        <v>13.73132700150251</v>
+        <v>16.02569608231279</v>
       </c>
       <c r="L10">
-        <v>7.572276945753269</v>
+        <v>12.08301617320865</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.43482532881913</v>
+        <v>17.94834107410593</v>
       </c>
       <c r="C11">
-        <v>9.380701054187508</v>
+        <v>6.270585949722046</v>
       </c>
       <c r="D11">
-        <v>2.344414010155684</v>
+        <v>4.144463831412244</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>52.13151825184963</v>
+        <v>56.89125705778457</v>
       </c>
       <c r="G11">
-        <v>2.133819715833459</v>
+        <v>3.776397471920878</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.80044105912013</v>
+        <v>41.05425855660116</v>
       </c>
       <c r="J11">
-        <v>6.345863302186474</v>
+        <v>10.50376119327922</v>
       </c>
       <c r="K11">
-        <v>14.26360949030285</v>
+        <v>16.07374553839643</v>
       </c>
       <c r="L11">
-        <v>7.666436925316884</v>
+        <v>12.07728222744758</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.62718492053628</v>
+        <v>17.97387602053933</v>
       </c>
       <c r="C12">
-        <v>9.512526175006988</v>
+        <v>6.311225988222525</v>
       </c>
       <c r="D12">
-        <v>2.343610053531997</v>
+        <v>4.139290348049851</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.51040886405606</v>
+        <v>56.96780923126389</v>
       </c>
       <c r="G12">
-        <v>2.131238097095868</v>
+        <v>3.775610661645944</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>36.01088737453221</v>
+        <v>41.09516277053488</v>
       </c>
       <c r="J12">
-        <v>6.344222580684631</v>
+        <v>10.50098100480113</v>
       </c>
       <c r="K12">
-        <v>14.46190955840584</v>
+        <v>16.09253114499709</v>
       </c>
       <c r="L12">
-        <v>7.702660502140353</v>
+        <v>12.07539829335052</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.58583096759407</v>
+        <v>17.96834589921605</v>
       </c>
       <c r="C13">
-        <v>9.484224311891643</v>
+        <v>6.302483989619115</v>
       </c>
       <c r="D13">
-        <v>2.343793712820321</v>
+        <v>4.140398925127037</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>52.42876647277247</v>
+        <v>56.95128158767792</v>
       </c>
       <c r="G13">
-        <v>2.131793707985911</v>
+        <v>3.775779461042575</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.96550441088672</v>
+        <v>41.08632768381016</v>
       </c>
       <c r="J13">
-        <v>6.344564168689834</v>
+        <v>10.5015751253703</v>
       </c>
       <c r="K13">
-        <v>14.41934539929585</v>
+        <v>16.08845927409909</v>
       </c>
       <c r="L13">
-        <v>7.694833785914187</v>
+        <v>12.07579125988363</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.45068425407737</v>
+        <v>17.95042798130073</v>
       </c>
       <c r="C14">
-        <v>9.391586642986402</v>
+        <v>6.27393412839561</v>
       </c>
       <c r="D14">
-        <v>2.344352582918146</v>
+        <v>4.144035670104927</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>52.16267110335144</v>
+        <v>56.89753663412017</v>
       </c>
       <c r="G14">
-        <v>2.13360714597888</v>
+        <v>3.776332445614641</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.81772781399219</v>
+        <v>41.05761220062612</v>
       </c>
       <c r="J14">
-        <v>6.345723028261887</v>
+        <v>10.50353037294877</v>
       </c>
       <c r="K14">
-        <v>14.27998850525673</v>
+        <v>16.07527928245304</v>
       </c>
       <c r="L14">
-        <v>7.66940565988999</v>
+        <v>12.07712147869072</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.36768615204208</v>
+        <v>17.9395430000506</v>
       </c>
       <c r="C15">
-        <v>9.334581105208585</v>
+        <v>6.256416302390091</v>
       </c>
       <c r="D15">
-        <v>2.344664387111194</v>
+        <v>4.146279763254763</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.99980157503173</v>
+        <v>56.86473622298423</v>
       </c>
       <c r="G15">
-        <v>2.13471911084533</v>
+        <v>3.776673081855587</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.72738416168612</v>
+        <v>41.04009842449232</v>
       </c>
       <c r="J15">
-        <v>6.346467173422166</v>
+        <v>10.50474161814432</v>
       </c>
       <c r="K15">
-        <v>14.19420675869998</v>
+        <v>16.06728266336008</v>
       </c>
       <c r="L15">
-        <v>7.653904234707462</v>
+        <v>12.07797368540291</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.88874971117346</v>
+        <v>17.87856318164278</v>
       </c>
       <c r="C16">
-        <v>9.003817264479803</v>
+        <v>6.155597596013555</v>
       </c>
       <c r="D16">
-        <v>2.345994602181556</v>
+        <v>4.159392847804141</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>51.06833418872723</v>
+        <v>56.67863300163071</v>
       </c>
       <c r="G16">
-        <v>2.141111536066166</v>
+        <v>3.778654579004268</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.21229854221191</v>
+        <v>40.94089803281309</v>
       </c>
       <c r="J16">
-        <v>6.351250744819358</v>
+        <v>10.51189143807962</v>
       </c>
       <c r="K16">
-        <v>13.69607820537316</v>
+        <v>16.02263921669521</v>
       </c>
       <c r="L16">
-        <v>7.566202464675831</v>
+        <v>12.08343114604991</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.59201234363056</v>
+        <v>17.84241618941792</v>
       </c>
       <c r="C17">
-        <v>8.797184956799255</v>
+        <v>6.093399525702401</v>
       </c>
       <c r="D17">
-        <v>2.346414801817937</v>
+        <v>4.167663655914753</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>50.49860170400176</v>
+        <v>56.56615307409829</v>
       </c>
       <c r="G17">
-        <v>2.145053303232726</v>
+        <v>3.779896509161952</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.89864075390327</v>
+        <v>40.88109114692474</v>
       </c>
       <c r="J17">
-        <v>6.354641514895171</v>
+        <v>10.51646405274361</v>
       </c>
       <c r="K17">
-        <v>13.41597669215868</v>
+        <v>15.99631643371346</v>
       </c>
       <c r="L17">
-        <v>7.513405375538914</v>
+        <v>12.08729157987612</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.42027612900412</v>
+        <v>17.82209504357141</v>
       </c>
       <c r="C18">
-        <v>8.67694125451316</v>
+        <v>6.057511075083412</v>
       </c>
       <c r="D18">
-        <v>2.346515397730329</v>
+        <v>4.172504195856424</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50.17154245299712</v>
+        <v>56.50208829923847</v>
       </c>
       <c r="G18">
-        <v>2.147328772346536</v>
+        <v>3.780620543703867</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.71908275708275</v>
+        <v>40.84708158814104</v>
       </c>
       <c r="J18">
-        <v>6.356756736331112</v>
+        <v>10.51916270695908</v>
       </c>
       <c r="K18">
-        <v>13.27819837371464</v>
+        <v>15.9815712676186</v>
       </c>
       <c r="L18">
-        <v>7.483406028501265</v>
+        <v>12.08970048990578</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.36194874623118</v>
+        <v>17.81529585187949</v>
       </c>
       <c r="C19">
-        <v>8.63598682175491</v>
+        <v>6.045341734780738</v>
       </c>
       <c r="D19">
-        <v>2.346525621364065</v>
+        <v>4.174157461306359</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>50.06091676393139</v>
+        <v>56.48050634433056</v>
       </c>
       <c r="G19">
-        <v>2.148100703920409</v>
+        <v>3.780867359496094</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.6584329839947</v>
+        <v>40.83563386584581</v>
       </c>
       <c r="J19">
-        <v>6.35750099307974</v>
+        <v>10.52008821718186</v>
       </c>
       <c r="K19">
-        <v>13.23144700671762</v>
+        <v>15.97664699856362</v>
       </c>
       <c r="L19">
-        <v>7.473311898804834</v>
+        <v>12.09054849346496</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.62371071206193</v>
+        <v>17.8462156202734</v>
       </c>
       <c r="C20">
-        <v>8.819325016742351</v>
+        <v>6.100032724183166</v>
       </c>
       <c r="D20">
-        <v>2.346384768666416</v>
+        <v>4.166774588371225</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>50.55918528583294</v>
+        <v>56.57806170684986</v>
       </c>
       <c r="G20">
-        <v>2.144632857979007</v>
+        <v>3.779763299331374</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.93194210462012</v>
+        <v>40.8874174435047</v>
       </c>
       <c r="J20">
-        <v>6.354263431161121</v>
+        <v>10.51597019165454</v>
       </c>
       <c r="K20">
-        <v>13.44142749640416</v>
+        <v>15.99907774134727</v>
       </c>
       <c r="L20">
-        <v>7.518987590669648</v>
+        <v>12.08686112559995</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.49042533395919</v>
+        <v>17.95567213218533</v>
       </c>
       <c r="C21">
-        <v>9.418851067074085</v>
+        <v>6.282326286003426</v>
       </c>
       <c r="D21">
-        <v>2.344194817070596</v>
+        <v>4.142964036276388</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>52.24080443226704</v>
+        <v>56.91329789687344</v>
       </c>
       <c r="G21">
-        <v>2.133074254128429</v>
+        <v>3.776169621243807</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.86109709612439</v>
+        <v>41.06603096879212</v>
       </c>
       <c r="J21">
-        <v>6.345375476534361</v>
+        <v>10.50295323571831</v>
       </c>
       <c r="K21">
-        <v>14.32100865992904</v>
+        <v>16.079134644263</v>
       </c>
       <c r="L21">
-        <v>7.676859076833578</v>
+        <v>12.07672296617243</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.09259565443156</v>
+        <v>18.03126405574862</v>
       </c>
       <c r="C22">
-        <v>9.798861479889251</v>
+        <v>6.40015188824323</v>
       </c>
       <c r="D22">
-        <v>2.341409641182592</v>
+        <v>4.128140702313669</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.34531076744745</v>
+        <v>57.13778953277728</v>
       </c>
       <c r="G22">
-        <v>2.125575227552738</v>
+        <v>3.77390682819642</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>36.47611030964413</v>
+        <v>41.1861462034044</v>
       </c>
       <c r="J22">
-        <v>6.341094903956369</v>
+        <v>10.4950548415626</v>
       </c>
       <c r="K22">
-        <v>14.89224454681994</v>
+        <v>16.13489110533792</v>
       </c>
       <c r="L22">
-        <v>7.783347306008935</v>
+        <v>12.07177190090725</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.75092883290537</v>
+        <v>17.9905544743134</v>
       </c>
       <c r="C23">
-        <v>9.597093048497397</v>
+        <v>6.337400287105972</v>
       </c>
       <c r="D23">
-        <v>2.343025128883427</v>
+        <v>4.135984854477828</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.75531490847476</v>
+        <v>57.01749142059582</v>
       </c>
       <c r="G23">
-        <v>2.12957349777916</v>
+        <v>3.77510669286789</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>36.14714325145348</v>
+        <v>41.12173358414415</v>
       </c>
       <c r="J23">
-        <v>6.343236662187013</v>
+        <v>10.49921474200185</v>
       </c>
       <c r="K23">
-        <v>14.58906173487872</v>
+        <v>16.10482275029611</v>
       </c>
       <c r="L23">
-        <v>7.726207612767326</v>
+        <v>12.07426132702366</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.60938342078187</v>
+        <v>17.8444964626168</v>
       </c>
       <c r="C24">
-        <v>8.809320012401161</v>
+        <v>6.097034256500456</v>
       </c>
       <c r="D24">
-        <v>2.346398784753196</v>
+        <v>4.167176269315704</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>50.53179392662435</v>
+        <v>56.5726759381009</v>
       </c>
       <c r="G24">
-        <v>2.144822912130283</v>
+        <v>3.7798234922398</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.91688417326512</v>
+        <v>40.88455615814617</v>
       </c>
       <c r="J24">
-        <v>6.354433846956452</v>
+        <v>10.51619324882351</v>
       </c>
       <c r="K24">
-        <v>13.42992325807696</v>
+        <v>15.99782814422323</v>
       </c>
       <c r="L24">
-        <v>7.516462767609125</v>
+        <v>12.08705514369139</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.33793955136517</v>
+        <v>17.70496633893276</v>
       </c>
       <c r="C25">
-        <v>7.905984579313865</v>
+        <v>5.833618809245854</v>
       </c>
       <c r="D25">
-        <v>2.344685504329234</v>
+        <v>4.204012125793562</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>48.15815312567388</v>
+        <v>56.11709720493757</v>
       </c>
       <c r="G25">
-        <v>2.161596658311224</v>
+        <v>3.785282883229418</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.62237749953744</v>
+        <v>40.64366857541275</v>
       </c>
       <c r="J25">
-        <v>6.372789039051437</v>
+        <v>10.53713151373571</v>
       </c>
       <c r="K25">
-        <v>12.41448403719019</v>
+        <v>15.8975578737501</v>
       </c>
       <c r="L25">
-        <v>7.304291408911144</v>
+        <v>12.10806301218556</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_151/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_151/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.61829200881043</v>
+        <v>13.37033859873309</v>
       </c>
       <c r="C2">
-        <v>5.637866171132563</v>
+        <v>7.191803322513605</v>
       </c>
       <c r="D2">
-        <v>4.23390688931526</v>
+        <v>2.33925674328206</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>55.80349110604007</v>
+        <v>46.43454123614379</v>
       </c>
       <c r="G2">
-        <v>3.789626048486827</v>
+        <v>2.174315058224565</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>40.47954401922465</v>
+        <v>32.69684493020963</v>
       </c>
       <c r="J2">
-        <v>10.55481807256826</v>
+        <v>6.391419430471506</v>
       </c>
       <c r="K2">
-        <v>15.83711071410278</v>
+        <v>11.65011874818668</v>
       </c>
       <c r="L2">
-        <v>12.12974397727694</v>
+        <v>7.160046142166497</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.56981555844717</v>
+        <v>12.69765940911853</v>
       </c>
       <c r="C3">
-        <v>5.505059495140196</v>
+        <v>6.675864582877974</v>
       </c>
       <c r="D3">
-        <v>4.255910923883797</v>
+        <v>2.333160685641109</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>55.60503640512128</v>
+        <v>45.2837698565822</v>
       </c>
       <c r="G3">
-        <v>3.792773168910352</v>
+        <v>2.183203093356327</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>40.37674773694604</v>
+        <v>32.0869760900117</v>
       </c>
       <c r="J3">
-        <v>10.56822686463771</v>
+        <v>6.407109382678951</v>
       </c>
       <c r="K3">
-        <v>15.80464444538398</v>
+        <v>11.12398303915805</v>
       </c>
       <c r="L3">
-        <v>12.14831809996609</v>
+        <v>7.069715160400429</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.54518279186487</v>
+        <v>12.27755821492313</v>
       </c>
       <c r="C4">
-        <v>5.423795793643277</v>
+        <v>6.342925233879917</v>
       </c>
       <c r="D4">
-        <v>4.270286594171957</v>
+        <v>2.328277621736695</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>55.49026954920508</v>
+        <v>44.58671765518039</v>
       </c>
       <c r="G4">
-        <v>3.794806639824577</v>
+        <v>2.188804577471757</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>40.31784229832042</v>
+        <v>31.72119820579507</v>
       </c>
       <c r="J4">
-        <v>10.57716374141505</v>
+        <v>6.418215852177782</v>
       </c>
       <c r="K4">
-        <v>15.78894453242371</v>
+        <v>10.79797227263222</v>
       </c>
       <c r="L4">
-        <v>12.16163812840418</v>
+        <v>7.017897687656011</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.53644463572526</v>
+        <v>12.10482164285343</v>
       </c>
       <c r="C5">
-        <v>5.39080555970054</v>
+        <v>6.203133457336837</v>
       </c>
       <c r="D5">
-        <v>4.276363031391301</v>
+        <v>2.326008017209244</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.44530333359429</v>
+        <v>44.30522389977622</v>
       </c>
       <c r="G5">
-        <v>3.795660814763967</v>
+        <v>2.191125086684298</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>40.29490478979467</v>
+        <v>31.5743475295807</v>
       </c>
       <c r="J5">
-        <v>10.58098289780157</v>
+        <v>6.423106789850827</v>
       </c>
       <c r="K5">
-        <v>15.78361717024827</v>
+        <v>10.66456324578178</v>
       </c>
       <c r="L5">
-        <v>12.16754798659174</v>
+        <v>6.997695728281271</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.53507242727811</v>
+        <v>12.07605346517803</v>
       </c>
       <c r="C6">
-        <v>5.385336759067936</v>
+        <v>6.179670979937553</v>
       </c>
       <c r="D6">
-        <v>4.277385220570326</v>
+        <v>2.325614448273466</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.43794614150465</v>
+        <v>44.25864171194073</v>
       </c>
       <c r="G6">
-        <v>3.795804193794668</v>
+        <v>2.191512736993175</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>40.29116068635732</v>
+        <v>31.55009704713143</v>
       </c>
       <c r="J6">
-        <v>10.58162778420092</v>
+        <v>6.423940817230328</v>
       </c>
       <c r="K6">
-        <v>15.78279736517324</v>
+        <v>10.64238314264942</v>
       </c>
       <c r="L6">
-        <v>12.16855842001361</v>
+        <v>6.994396310353935</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.54505967153036</v>
+        <v>12.27523452909028</v>
       </c>
       <c r="C7">
-        <v>5.423350294616931</v>
+        <v>6.341056690271434</v>
       </c>
       <c r="D7">
-        <v>4.270367658567098</v>
+        <v>2.32824813689206</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>55.48965579636407</v>
+        <v>44.58291073961548</v>
       </c>
       <c r="G7">
-        <v>3.7948180560815</v>
+        <v>2.1888357173355</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>40.31752862547354</v>
+        <v>31.71920876031441</v>
       </c>
       <c r="J7">
-        <v>10.57721452955696</v>
+        <v>6.418280342250142</v>
       </c>
       <c r="K7">
-        <v>15.78886834474101</v>
+        <v>10.7961750594293</v>
       </c>
       <c r="L7">
-        <v>12.16171587968053</v>
+        <v>7.017621540458027</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.60051830155825</v>
+        <v>13.13999616488654</v>
       </c>
       <c r="C8">
-        <v>5.592048823151222</v>
+        <v>7.017225558853537</v>
       </c>
       <c r="D8">
-        <v>4.241314746753531</v>
+        <v>2.337395841086883</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>55.73360629822542</v>
+        <v>46.03587402863003</v>
       </c>
       <c r="G8">
-        <v>3.790690241135796</v>
+        <v>2.177350720746615</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>40.44323060271659</v>
+        <v>32.48477313822229</v>
       </c>
       <c r="J8">
-        <v>10.55929554018078</v>
+        <v>6.396520321108015</v>
       </c>
       <c r="K8">
-        <v>15.82504119754474</v>
+        <v>11.46942590461171</v>
       </c>
       <c r="L8">
-        <v>12.13575091358631</v>
+        <v>7.128141929454864</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.74950801702469</v>
+        <v>14.77138297292233</v>
       </c>
       <c r="C9">
-        <v>5.922754535166892</v>
+        <v>8.217708121213782</v>
       </c>
       <c r="D9">
-        <v>4.191175105655116</v>
+        <v>2.345936644109747</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>56.26723243661394</v>
+        <v>48.95422528778109</v>
       </c>
       <c r="G9">
-        <v>3.783393894347879</v>
+        <v>2.155894793630984</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>40.72277997357725</v>
+        <v>34.05414642251964</v>
       </c>
       <c r="J9">
-        <v>10.52972669786905</v>
+        <v>6.365793498412351</v>
       </c>
       <c r="K9">
-        <v>15.92927787224048</v>
+        <v>12.75937176177364</v>
       </c>
       <c r="L9">
-        <v>12.1000221827436</v>
+        <v>7.373895027552551</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.8827510275332</v>
+        <v>15.92246461646301</v>
       </c>
       <c r="C10">
-        <v>6.16267834986824</v>
+        <v>9.027208477456449</v>
       </c>
       <c r="D10">
-        <v>4.158460375764764</v>
+        <v>2.345927225409959</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>56.69155247088958</v>
+        <v>51.13342963219601</v>
       </c>
       <c r="G10">
-        <v>3.778514179784309</v>
+        <v>2.140662813749019</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>40.94777493330321</v>
+        <v>35.24820463691209</v>
       </c>
       <c r="J10">
-        <v>10.51137896060045</v>
+        <v>6.350886378149944</v>
       </c>
       <c r="K10">
-        <v>16.02569608231279</v>
+        <v>13.73132700150251</v>
       </c>
       <c r="L10">
-        <v>12.08301617320865</v>
+        <v>7.572276945753227</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.94834107410593</v>
+        <v>16.43482532881912</v>
       </c>
       <c r="C11">
-        <v>6.270585949722046</v>
+        <v>9.380701054187364</v>
       </c>
       <c r="D11">
-        <v>4.144463831412244</v>
+        <v>2.344414010155886</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>56.89125705778457</v>
+        <v>52.13151825184971</v>
       </c>
       <c r="G11">
-        <v>3.776397471920878</v>
+        <v>2.133819715833331</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>41.05425855660116</v>
+        <v>35.80044105912021</v>
       </c>
       <c r="J11">
-        <v>10.50376119327922</v>
+        <v>6.345863302186476</v>
       </c>
       <c r="K11">
-        <v>16.07374553839643</v>
+        <v>14.26360949030281</v>
       </c>
       <c r="L11">
-        <v>12.07728222744758</v>
+        <v>7.666436925316843</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.97387602053933</v>
+        <v>16.62718492053625</v>
       </c>
       <c r="C12">
-        <v>6.311225988222525</v>
+        <v>9.512526175006929</v>
       </c>
       <c r="D12">
-        <v>4.139290348049851</v>
+        <v>2.343610053532326</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>56.96780923126389</v>
+        <v>52.51040886405616</v>
       </c>
       <c r="G12">
-        <v>3.775610661645944</v>
+        <v>2.131238097096008</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>41.09516277053488</v>
+        <v>36.0108873745323</v>
       </c>
       <c r="J12">
-        <v>10.50098100480113</v>
+        <v>6.344222580684705</v>
       </c>
       <c r="K12">
-        <v>16.09253114499709</v>
+        <v>14.46190955840577</v>
       </c>
       <c r="L12">
-        <v>12.07539829335052</v>
+        <v>7.702660502140342</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.96834589921605</v>
+        <v>16.58583096759406</v>
       </c>
       <c r="C13">
-        <v>6.302483989619115</v>
+        <v>9.484224311891568</v>
       </c>
       <c r="D13">
-        <v>4.140398925127037</v>
+        <v>2.343793712820388</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>56.95128158767792</v>
+        <v>52.42876647277252</v>
       </c>
       <c r="G13">
-        <v>3.775779461042575</v>
+        <v>2.131793707985656</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>41.08632768381016</v>
+        <v>35.96550441088678</v>
       </c>
       <c r="J13">
-        <v>10.5015751253703</v>
+        <v>6.344564168689727</v>
       </c>
       <c r="K13">
-        <v>16.08845927409909</v>
+        <v>14.41934539929583</v>
       </c>
       <c r="L13">
-        <v>12.07579125988363</v>
+        <v>7.694833785914129</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.95042798130073</v>
+        <v>16.45068425407738</v>
       </c>
       <c r="C14">
-        <v>6.27393412839561</v>
+        <v>9.391586642986386</v>
       </c>
       <c r="D14">
-        <v>4.144035670104927</v>
+        <v>2.344352582918213</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>56.89753663412017</v>
+        <v>52.1626711033515</v>
       </c>
       <c r="G14">
-        <v>3.776332445614641</v>
+        <v>2.13360714597862</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>41.05761220062612</v>
+        <v>35.81772781399224</v>
       </c>
       <c r="J14">
-        <v>10.50353037294877</v>
+        <v>6.345723028261786</v>
       </c>
       <c r="K14">
-        <v>16.07527928245304</v>
+        <v>14.2799885052567</v>
       </c>
       <c r="L14">
-        <v>12.07712147869072</v>
+        <v>7.669405659889899</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.9395430000506</v>
+        <v>16.36768615204208</v>
       </c>
       <c r="C15">
-        <v>6.256416302390091</v>
+        <v>9.334581105208626</v>
       </c>
       <c r="D15">
-        <v>4.146279763254763</v>
+        <v>2.344664387111333</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>56.86473622298423</v>
+        <v>51.99980157503173</v>
       </c>
       <c r="G15">
-        <v>3.776673081855587</v>
+        <v>2.134719110845325</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>41.04009842449232</v>
+        <v>35.72738416168619</v>
       </c>
       <c r="J15">
-        <v>10.50474161814432</v>
+        <v>6.34646717342212</v>
       </c>
       <c r="K15">
-        <v>16.06728266336008</v>
+        <v>14.19420675869999</v>
       </c>
       <c r="L15">
-        <v>12.07797368540291</v>
+        <v>7.653904234707381</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.87856318164278</v>
+        <v>15.88874971117347</v>
       </c>
       <c r="C16">
-        <v>6.155597596013555</v>
+        <v>9.003817264479812</v>
       </c>
       <c r="D16">
-        <v>4.159392847804141</v>
+        <v>2.345994602181625</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>56.67863300163071</v>
+        <v>51.06833418872741</v>
       </c>
       <c r="G16">
-        <v>3.778654579004268</v>
+        <v>2.141111536066168</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>40.94089803281309</v>
+        <v>35.21229854221209</v>
       </c>
       <c r="J16">
-        <v>10.51189143807962</v>
+        <v>6.351250744819302</v>
       </c>
       <c r="K16">
-        <v>16.02263921669521</v>
+        <v>13.69607820537313</v>
       </c>
       <c r="L16">
-        <v>12.08343114604991</v>
+        <v>7.566202464675742</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.84241618941792</v>
+        <v>15.59201234363056</v>
       </c>
       <c r="C17">
-        <v>6.093399525702401</v>
+        <v>8.797184956799187</v>
       </c>
       <c r="D17">
-        <v>4.167663655914753</v>
+        <v>2.34641480181807</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>56.56615307409829</v>
+        <v>50.49860170400181</v>
       </c>
       <c r="G17">
-        <v>3.779896509161952</v>
+        <v>2.145053303232588</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>40.88109114692474</v>
+        <v>34.89864075390331</v>
       </c>
       <c r="J17">
-        <v>10.51646405274361</v>
+        <v>6.354641514895254</v>
       </c>
       <c r="K17">
-        <v>15.99631643371346</v>
+        <v>13.41597669215868</v>
       </c>
       <c r="L17">
-        <v>12.08729157987612</v>
+        <v>7.513405375538913</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.82209504357141</v>
+        <v>15.4202761290041</v>
       </c>
       <c r="C18">
-        <v>6.057511075083412</v>
+        <v>8.676941254513007</v>
       </c>
       <c r="D18">
-        <v>4.172504195856424</v>
+        <v>2.34651539773053</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>56.50208829923847</v>
+        <v>50.17154245299713</v>
       </c>
       <c r="G18">
-        <v>3.780620543703867</v>
+        <v>2.147328772346666</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>40.84708158814104</v>
+        <v>34.71908275708277</v>
       </c>
       <c r="J18">
-        <v>10.51916270695908</v>
+        <v>6.356756736330997</v>
       </c>
       <c r="K18">
-        <v>15.9815712676186</v>
+        <v>13.27819837371462</v>
       </c>
       <c r="L18">
-        <v>12.08970048990578</v>
+        <v>7.483406028501199</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.81529585187949</v>
+        <v>15.36194874623119</v>
       </c>
       <c r="C19">
-        <v>6.045341734780738</v>
+        <v>8.635986821754964</v>
       </c>
       <c r="D19">
-        <v>4.174157461306359</v>
+        <v>2.34652562136393</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>56.48050634433056</v>
+        <v>50.06091676393162</v>
       </c>
       <c r="G19">
-        <v>3.780867359496094</v>
+        <v>2.14810070392001</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40.83563386584581</v>
+        <v>34.65843298399483</v>
       </c>
       <c r="J19">
-        <v>10.52008821718186</v>
+        <v>6.357500993079652</v>
       </c>
       <c r="K19">
-        <v>15.97664699856362</v>
+        <v>13.23144700671764</v>
       </c>
       <c r="L19">
-        <v>12.09054849346496</v>
+        <v>7.473311898804821</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.8462156202734</v>
+        <v>15.62371071206189</v>
       </c>
       <c r="C20">
-        <v>6.100032724183166</v>
+        <v>8.819325016742354</v>
       </c>
       <c r="D20">
-        <v>4.166774588371225</v>
+        <v>2.346384768666621</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>56.57806170684986</v>
+        <v>50.55918528583307</v>
       </c>
       <c r="G20">
-        <v>3.779763299331374</v>
+        <v>2.144632857979403</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>40.8874174435047</v>
+        <v>34.93194210462022</v>
       </c>
       <c r="J20">
-        <v>10.51597019165454</v>
+        <v>6.354263431161164</v>
       </c>
       <c r="K20">
-        <v>15.99907774134727</v>
+        <v>13.44142749640413</v>
       </c>
       <c r="L20">
-        <v>12.08686112559995</v>
+        <v>7.518987590669579</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.95567213218533</v>
+        <v>16.49042533395919</v>
       </c>
       <c r="C21">
-        <v>6.282326286003426</v>
+        <v>9.418851067073817</v>
       </c>
       <c r="D21">
-        <v>4.142964036276388</v>
+        <v>2.344194817070593</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>56.91329789687344</v>
+        <v>52.24080443226701</v>
       </c>
       <c r="G21">
-        <v>3.776169621243807</v>
+        <v>2.133074254128295</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>41.06603096879212</v>
+        <v>35.86109709612433</v>
       </c>
       <c r="J21">
-        <v>10.50295323571831</v>
+        <v>6.34537547653445</v>
       </c>
       <c r="K21">
-        <v>16.079134644263</v>
+        <v>14.32100865992906</v>
       </c>
       <c r="L21">
-        <v>12.07672296617243</v>
+        <v>7.676859076833646</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.03126405574862</v>
+        <v>17.09259565443147</v>
       </c>
       <c r="C22">
-        <v>6.40015188824323</v>
+        <v>9.798861479889181</v>
       </c>
       <c r="D22">
-        <v>4.128140702313669</v>
+        <v>2.341409641182918</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>57.13778953277728</v>
+        <v>53.34531076744742</v>
       </c>
       <c r="G22">
-        <v>3.77390682819642</v>
+        <v>2.125575227552738</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>41.1861462034044</v>
+        <v>36.47611030964416</v>
       </c>
       <c r="J22">
-        <v>10.4950548415626</v>
+        <v>6.341094903956498</v>
       </c>
       <c r="K22">
-        <v>16.13489110533792</v>
+        <v>14.8922445468198</v>
       </c>
       <c r="L22">
-        <v>12.07177190090725</v>
+        <v>7.783347306009015</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.9905544743134</v>
+        <v>16.75092883290537</v>
       </c>
       <c r="C23">
-        <v>6.337400287105972</v>
+        <v>9.597093048497435</v>
       </c>
       <c r="D23">
-        <v>4.135984854477828</v>
+        <v>2.343025128883563</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>57.01749142059582</v>
+        <v>52.75531490847489</v>
       </c>
       <c r="G23">
-        <v>3.77510669286789</v>
+        <v>2.129573497779165</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>41.12173358414415</v>
+        <v>36.14714325145362</v>
       </c>
       <c r="J23">
-        <v>10.49921474200185</v>
+        <v>6.343236662187075</v>
       </c>
       <c r="K23">
-        <v>16.10482275029611</v>
+        <v>14.58906173487871</v>
       </c>
       <c r="L23">
-        <v>12.07426132702366</v>
+        <v>7.726207612767326</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.8444964626168</v>
+        <v>15.60938342078189</v>
       </c>
       <c r="C24">
-        <v>6.097034256500456</v>
+        <v>8.809320012401198</v>
       </c>
       <c r="D24">
-        <v>4.167176269315704</v>
+        <v>2.346398784753396</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>56.5726759381009</v>
+        <v>50.53179392662435</v>
       </c>
       <c r="G24">
-        <v>3.7798234922398</v>
+        <v>2.14482291213015</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>40.88455615814617</v>
+        <v>34.91688417326515</v>
       </c>
       <c r="J24">
-        <v>10.51619324882351</v>
+        <v>6.354433846956336</v>
       </c>
       <c r="K24">
-        <v>15.99782814422323</v>
+        <v>13.42992325807699</v>
       </c>
       <c r="L24">
-        <v>12.08705514369139</v>
+        <v>7.516462767609022</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.70496633893276</v>
+        <v>14.33793955136517</v>
       </c>
       <c r="C25">
-        <v>5.833618809245854</v>
+        <v>7.905984579313818</v>
       </c>
       <c r="D25">
-        <v>4.204012125793562</v>
+        <v>2.344685504329166</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>56.11709720493757</v>
+        <v>48.15815312567391</v>
       </c>
       <c r="G25">
-        <v>3.785282883229418</v>
+        <v>2.161596658311359</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.64366857541275</v>
+        <v>33.62237749953748</v>
       </c>
       <c r="J25">
-        <v>10.53713151373571</v>
+        <v>6.372789039051495</v>
       </c>
       <c r="K25">
-        <v>15.8975578737501</v>
+        <v>12.41448403719019</v>
       </c>
       <c r="L25">
-        <v>12.10806301218556</v>
+        <v>7.304291408911149</v>
       </c>
       <c r="M25">
         <v>0</v>
